--- a/Database/Csaki/Decese.xlsx
+++ b/Database/Csaki/Decese.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lajos Csaki\Desktop\Practica UTCN\Practica_covid19_UTCN\Database\Csaki\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leo\Desktop\Baza date liceta\Licenta_covid19_UTCN\Database\Csaki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34EC8829-11CA-45E1-BC8F-88F0B525786D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC178BB-CD75-406A-A0F3-718ACD5C6278}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11535" yWindow="1725" windowWidth="8955" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -96,8 +96,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFED7D31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -105,11 +117,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -119,12 +146,19 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFED7D31"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -399,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D223"/>
+  <dimension ref="A1:H377"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A204" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C223" sqref="C223"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -411,7 +445,7 @@
     <col min="2" max="4" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -425,7 +459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>43887</v>
       </c>
@@ -439,7 +473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>43888</v>
       </c>
@@ -452,8 +486,9 @@
       <c r="D3" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>43889</v>
       </c>
@@ -467,7 +502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>43890</v>
       </c>
@@ -481,7 +516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>43891</v>
       </c>
@@ -495,7 +530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>43892</v>
       </c>
@@ -509,7 +544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>43893</v>
       </c>
@@ -523,7 +558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>43894</v>
       </c>
@@ -537,7 +572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>43895</v>
       </c>
@@ -551,7 +586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>43896</v>
       </c>
@@ -565,7 +600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>43897</v>
       </c>
@@ -579,7 +614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>43898</v>
       </c>
@@ -593,7 +628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>43899</v>
       </c>
@@ -607,7 +642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>43900</v>
       </c>
@@ -621,7 +656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>43901</v>
       </c>
@@ -2855,7 +2890,7 @@
         <v>174</v>
       </c>
       <c r="C175" s="2">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D175" s="3">
         <v>3029</v>
@@ -3051,7 +3086,7 @@
         <v>188</v>
       </c>
       <c r="C189" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D189" s="3">
         <v>3621</v>
@@ -3233,7 +3268,7 @@
         <v>201</v>
       </c>
       <c r="C202" s="2">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D202" s="3">
         <v>4163</v>
@@ -3531,6 +3566,2162 @@
       </c>
       <c r="D223" s="3">
         <v>5003</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" s="4">
+        <v>44109</v>
+      </c>
+      <c r="B224" s="1">
+        <v>223</v>
+      </c>
+      <c r="C224" s="7">
+        <v>45</v>
+      </c>
+      <c r="D224" s="3">
+        <v>5048</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" s="4">
+        <v>44110</v>
+      </c>
+      <c r="B225" s="1">
+        <v>224</v>
+      </c>
+      <c r="C225" s="7">
+        <v>73</v>
+      </c>
+      <c r="D225" s="3">
+        <v>5121</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" s="4">
+        <v>44111</v>
+      </c>
+      <c r="B226" s="1">
+        <v>225</v>
+      </c>
+      <c r="C226" s="7">
+        <v>82</v>
+      </c>
+      <c r="D226" s="3">
+        <v>5203</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" s="4">
+        <v>44112</v>
+      </c>
+      <c r="B227" s="1">
+        <v>226</v>
+      </c>
+      <c r="C227" s="7">
+        <v>44</v>
+      </c>
+      <c r="D227" s="3">
+        <v>5247</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" s="4">
+        <v>44113</v>
+      </c>
+      <c r="B228" s="1">
+        <v>227</v>
+      </c>
+      <c r="C228" s="7">
+        <v>52</v>
+      </c>
+      <c r="D228" s="3">
+        <v>5299</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" s="4">
+        <v>44114</v>
+      </c>
+      <c r="B229" s="1">
+        <v>228</v>
+      </c>
+      <c r="C229" s="7">
+        <v>59</v>
+      </c>
+      <c r="D229" s="3">
+        <v>5358</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" s="4">
+        <v>44115</v>
+      </c>
+      <c r="B230" s="1">
+        <v>229</v>
+      </c>
+      <c r="C230" s="7">
+        <v>53</v>
+      </c>
+      <c r="D230" s="3">
+        <v>5411</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" s="4">
+        <v>44116</v>
+      </c>
+      <c r="B231" s="1">
+        <v>230</v>
+      </c>
+      <c r="C231" s="7">
+        <v>56</v>
+      </c>
+      <c r="D231" s="3">
+        <v>5467</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" s="4">
+        <v>44117</v>
+      </c>
+      <c r="B232" s="1">
+        <v>231</v>
+      </c>
+      <c r="C232" s="7">
+        <v>68</v>
+      </c>
+      <c r="D232" s="3">
+        <v>5535</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" s="4">
+        <v>44118</v>
+      </c>
+      <c r="B233" s="1">
+        <v>232</v>
+      </c>
+      <c r="C233" s="7">
+        <v>66</v>
+      </c>
+      <c r="D233" s="3">
+        <v>5601</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234" s="4">
+        <v>44119</v>
+      </c>
+      <c r="B234" s="1">
+        <v>233</v>
+      </c>
+      <c r="C234" s="7">
+        <v>73</v>
+      </c>
+      <c r="D234" s="3">
+        <v>5674</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" s="4">
+        <v>44120</v>
+      </c>
+      <c r="B235" s="1">
+        <v>234</v>
+      </c>
+      <c r="C235" s="7">
+        <v>75</v>
+      </c>
+      <c r="D235" s="3">
+        <v>5749</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" s="4">
+        <v>44121</v>
+      </c>
+      <c r="B236" s="1">
+        <v>235</v>
+      </c>
+      <c r="C236" s="7">
+        <v>63</v>
+      </c>
+      <c r="D236" s="3">
+        <v>5812</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237" s="4">
+        <v>44122</v>
+      </c>
+      <c r="B237" s="1">
+        <v>236</v>
+      </c>
+      <c r="C237" s="7">
+        <v>60</v>
+      </c>
+      <c r="D237" s="3">
+        <v>5872</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" s="4">
+        <v>44123</v>
+      </c>
+      <c r="B238" s="1">
+        <v>237</v>
+      </c>
+      <c r="C238" s="7">
+        <v>59</v>
+      </c>
+      <c r="D238" s="3">
+        <v>5931</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" s="4">
+        <v>44124</v>
+      </c>
+      <c r="B239" s="1">
+        <v>238</v>
+      </c>
+      <c r="C239" s="7">
+        <v>65</v>
+      </c>
+      <c r="D239" s="3">
+        <v>5996</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240" s="4">
+        <v>44125</v>
+      </c>
+      <c r="B240" s="1">
+        <v>239</v>
+      </c>
+      <c r="C240" s="7">
+        <v>69</v>
+      </c>
+      <c r="D240" s="3">
+        <v>6065</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241" s="4">
+        <v>44126</v>
+      </c>
+      <c r="B241" s="1">
+        <v>240</v>
+      </c>
+      <c r="C241" s="7">
+        <v>98</v>
+      </c>
+      <c r="D241" s="3">
+        <v>6163</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242" s="4">
+        <v>44127</v>
+      </c>
+      <c r="B242" s="1">
+        <v>241</v>
+      </c>
+      <c r="C242" s="7">
+        <v>82</v>
+      </c>
+      <c r="D242" s="3">
+        <v>6245</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243" s="4">
+        <v>44128</v>
+      </c>
+      <c r="B243" s="1">
+        <v>242</v>
+      </c>
+      <c r="C243" s="7">
+        <v>73</v>
+      </c>
+      <c r="D243" s="3">
+        <v>6318</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244" s="4">
+        <v>44129</v>
+      </c>
+      <c r="B244" s="1">
+        <v>243</v>
+      </c>
+      <c r="C244" s="7">
+        <v>73</v>
+      </c>
+      <c r="D244" s="3">
+        <v>6391</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245" s="4">
+        <v>44130</v>
+      </c>
+      <c r="B245" s="1">
+        <v>244</v>
+      </c>
+      <c r="C245" s="7">
+        <v>79</v>
+      </c>
+      <c r="D245" s="3">
+        <v>6470</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246" s="4">
+        <v>44131</v>
+      </c>
+      <c r="B246" s="1">
+        <v>245</v>
+      </c>
+      <c r="C246" s="7">
+        <v>104</v>
+      </c>
+      <c r="D246" s="3">
+        <v>6574</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247" s="4">
+        <v>44132</v>
+      </c>
+      <c r="B247" s="1">
+        <v>246</v>
+      </c>
+      <c r="C247" s="7">
+        <v>107</v>
+      </c>
+      <c r="D247" s="3">
+        <v>6681</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248" s="4">
+        <v>44133</v>
+      </c>
+      <c r="B248" s="1">
+        <v>247</v>
+      </c>
+      <c r="C248" s="7">
+        <v>83</v>
+      </c>
+      <c r="D248" s="3">
+        <v>6764</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249" s="4">
+        <v>44134</v>
+      </c>
+      <c r="B249" s="1">
+        <v>248</v>
+      </c>
+      <c r="C249" s="7">
+        <v>103</v>
+      </c>
+      <c r="D249" s="3">
+        <v>6867</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250" s="4">
+        <v>44135</v>
+      </c>
+      <c r="B250" s="1">
+        <v>249</v>
+      </c>
+      <c r="C250" s="7">
+        <v>101</v>
+      </c>
+      <c r="D250" s="3">
+        <v>6968</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251" s="4">
+        <v>44136</v>
+      </c>
+      <c r="B251" s="1">
+        <v>250</v>
+      </c>
+      <c r="C251" s="7">
+        <v>99</v>
+      </c>
+      <c r="D251" s="3">
+        <v>7067</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252" s="4">
+        <v>44137</v>
+      </c>
+      <c r="B252" s="1">
+        <v>251</v>
+      </c>
+      <c r="C252" s="7">
+        <v>86</v>
+      </c>
+      <c r="D252" s="3">
+        <v>7153</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253" s="4">
+        <v>44138</v>
+      </c>
+      <c r="B253" s="1">
+        <v>252</v>
+      </c>
+      <c r="C253" s="7">
+        <v>120</v>
+      </c>
+      <c r="D253" s="3">
+        <v>7153</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254" s="4">
+        <v>44139</v>
+      </c>
+      <c r="B254" s="1">
+        <v>253</v>
+      </c>
+      <c r="C254" s="7">
+        <v>146</v>
+      </c>
+      <c r="D254" s="3">
+        <v>7419</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255" s="4">
+        <v>44140</v>
+      </c>
+      <c r="B255" s="1">
+        <v>254</v>
+      </c>
+      <c r="C255" s="7">
+        <v>121</v>
+      </c>
+      <c r="D255" s="3">
+        <v>7540</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256" s="4">
+        <v>44141</v>
+      </c>
+      <c r="B256" s="1">
+        <v>255</v>
+      </c>
+      <c r="C256" s="7">
+        <v>123</v>
+      </c>
+      <c r="D256" s="3">
+        <v>7663</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257" s="4">
+        <v>44142</v>
+      </c>
+      <c r="B257" s="1">
+        <v>256</v>
+      </c>
+      <c r="C257" s="7">
+        <v>130</v>
+      </c>
+      <c r="D257" s="3">
+        <v>7793</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258" s="4">
+        <v>44143</v>
+      </c>
+      <c r="B258" s="1">
+        <v>257</v>
+      </c>
+      <c r="C258" s="7">
+        <v>86</v>
+      </c>
+      <c r="D258" s="3">
+        <v>7879</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259" s="4">
+        <v>44144</v>
+      </c>
+      <c r="B259" s="1">
+        <v>258</v>
+      </c>
+      <c r="C259" s="7">
+        <v>130</v>
+      </c>
+      <c r="D259" s="3">
+        <v>8009</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260" s="4">
+        <v>44145</v>
+      </c>
+      <c r="B260" s="1">
+        <v>259</v>
+      </c>
+      <c r="C260" s="7">
+        <v>177</v>
+      </c>
+      <c r="D260" s="3">
+        <v>8186</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261" s="4">
+        <v>44146</v>
+      </c>
+      <c r="B261" s="1">
+        <v>260</v>
+      </c>
+      <c r="C261" s="7">
+        <v>203</v>
+      </c>
+      <c r="D261" s="3">
+        <v>8389</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262" s="4">
+        <v>44147</v>
+      </c>
+      <c r="B262" s="1">
+        <v>261</v>
+      </c>
+      <c r="C262" s="7">
+        <v>121</v>
+      </c>
+      <c r="D262" s="3">
+        <v>8510</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263" s="4">
+        <v>44148</v>
+      </c>
+      <c r="B263" s="1">
+        <v>262</v>
+      </c>
+      <c r="C263" s="7">
+        <v>174</v>
+      </c>
+      <c r="D263" s="3">
+        <v>8684</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264" s="4">
+        <v>44149</v>
+      </c>
+      <c r="B264" s="1">
+        <v>263</v>
+      </c>
+      <c r="C264" s="7">
+        <v>129</v>
+      </c>
+      <c r="D264" s="3">
+        <v>8813</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265" s="4">
+        <v>44150</v>
+      </c>
+      <c r="B265" s="1">
+        <v>264</v>
+      </c>
+      <c r="C265" s="7">
+        <v>113</v>
+      </c>
+      <c r="D265" s="3">
+        <v>8926</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266" s="4">
+        <v>44151</v>
+      </c>
+      <c r="B266" s="1">
+        <v>265</v>
+      </c>
+      <c r="C266" s="7">
+        <v>149</v>
+      </c>
+      <c r="D266" s="3">
+        <v>9075</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267" s="4">
+        <v>44152</v>
+      </c>
+      <c r="B267" s="1">
+        <v>266</v>
+      </c>
+      <c r="C267" s="7">
+        <v>186</v>
+      </c>
+      <c r="D267" s="3">
+        <v>9261</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268" s="4">
+        <v>44153</v>
+      </c>
+      <c r="B268" s="1">
+        <v>267</v>
+      </c>
+      <c r="C268" s="7">
+        <v>168</v>
+      </c>
+      <c r="D268" s="3">
+        <v>9429</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269" s="4">
+        <v>44154</v>
+      </c>
+      <c r="B269" s="1">
+        <v>268</v>
+      </c>
+      <c r="C269" s="7">
+        <v>167</v>
+      </c>
+      <c r="D269" s="3">
+        <v>9596</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270" s="4">
+        <v>44155</v>
+      </c>
+      <c r="B270" s="1">
+        <v>269</v>
+      </c>
+      <c r="C270" s="7">
+        <v>160</v>
+      </c>
+      <c r="D270" s="3">
+        <v>9756</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271" s="4">
+        <v>44156</v>
+      </c>
+      <c r="B271" s="1">
+        <v>270</v>
+      </c>
+      <c r="C271" s="7">
+        <v>160</v>
+      </c>
+      <c r="D271" s="3">
+        <v>9916</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272" s="4">
+        <v>44157</v>
+      </c>
+      <c r="B272" s="1">
+        <v>271</v>
+      </c>
+      <c r="C272" s="7">
+        <v>131</v>
+      </c>
+      <c r="D272" s="3">
+        <v>10047</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273" s="4">
+        <v>44158</v>
+      </c>
+      <c r="B273" s="1">
+        <v>272</v>
+      </c>
+      <c r="C273" s="7">
+        <v>130</v>
+      </c>
+      <c r="D273" s="3">
+        <v>10177</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274" s="4">
+        <v>44159</v>
+      </c>
+      <c r="B274" s="1">
+        <v>273</v>
+      </c>
+      <c r="C274" s="7">
+        <v>196</v>
+      </c>
+      <c r="D274" s="3">
+        <v>10373</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275" s="4">
+        <v>44160</v>
+      </c>
+      <c r="B275" s="1">
+        <v>274</v>
+      </c>
+      <c r="C275" s="7">
+        <v>168</v>
+      </c>
+      <c r="D275" s="3">
+        <v>10541</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276" s="4">
+        <v>44161</v>
+      </c>
+      <c r="B276" s="1">
+        <v>275</v>
+      </c>
+      <c r="C276" s="7">
+        <v>105</v>
+      </c>
+      <c r="D276" s="3">
+        <v>10712</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A277" s="4">
+        <v>44162</v>
+      </c>
+      <c r="B277" s="1">
+        <v>276</v>
+      </c>
+      <c r="C277" s="7">
+        <v>172</v>
+      </c>
+      <c r="D277" s="3">
+        <v>10884</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278" s="4">
+        <v>44163</v>
+      </c>
+      <c r="B278" s="1">
+        <v>277</v>
+      </c>
+      <c r="C278" s="7">
+        <v>161</v>
+      </c>
+      <c r="D278" s="3">
+        <v>11045</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279" s="4">
+        <v>44164</v>
+      </c>
+      <c r="B279" s="1">
+        <v>278</v>
+      </c>
+      <c r="C279" s="7">
+        <v>148</v>
+      </c>
+      <c r="D279" s="3">
+        <v>11193</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280" s="4">
+        <v>44165</v>
+      </c>
+      <c r="B280" s="1">
+        <v>279</v>
+      </c>
+      <c r="C280" s="7">
+        <v>138</v>
+      </c>
+      <c r="D280" s="3">
+        <v>11331</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281" s="4">
+        <v>44166</v>
+      </c>
+      <c r="B281" s="1">
+        <v>280</v>
+      </c>
+      <c r="C281" s="7">
+        <v>199</v>
+      </c>
+      <c r="D281" s="3">
+        <v>11530</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A282" s="4">
+        <v>44167</v>
+      </c>
+      <c r="B282" s="1">
+        <v>281</v>
+      </c>
+      <c r="C282" s="7">
+        <v>135</v>
+      </c>
+      <c r="D282" s="3">
+        <v>11665</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A283" s="4">
+        <v>44168</v>
+      </c>
+      <c r="B283" s="1">
+        <v>282</v>
+      </c>
+      <c r="C283" s="7">
+        <v>211</v>
+      </c>
+      <c r="D283" s="3">
+        <v>11876</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A284" s="4">
+        <v>44169</v>
+      </c>
+      <c r="B284" s="1">
+        <v>283</v>
+      </c>
+      <c r="C284" s="7">
+        <v>176</v>
+      </c>
+      <c r="D284" s="3">
+        <v>12052</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A285" s="4">
+        <v>44170</v>
+      </c>
+      <c r="B285" s="1">
+        <v>284</v>
+      </c>
+      <c r="C285" s="7">
+        <v>134</v>
+      </c>
+      <c r="D285" s="3">
+        <v>12186</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A286" s="4">
+        <v>44171</v>
+      </c>
+      <c r="B286" s="1">
+        <v>285</v>
+      </c>
+      <c r="C286" s="7">
+        <v>134</v>
+      </c>
+      <c r="D286" s="3">
+        <v>12320</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A287" s="4">
+        <v>44172</v>
+      </c>
+      <c r="B287" s="1">
+        <v>286</v>
+      </c>
+      <c r="C287" s="7">
+        <v>127</v>
+      </c>
+      <c r="D287" s="3">
+        <v>12447</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A288" s="4">
+        <v>44173</v>
+      </c>
+      <c r="B288" s="1">
+        <v>287</v>
+      </c>
+      <c r="C288" s="7">
+        <v>213</v>
+      </c>
+      <c r="D288" s="3">
+        <v>12660</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A289" s="4">
+        <v>44174</v>
+      </c>
+      <c r="B289" s="1">
+        <v>288</v>
+      </c>
+      <c r="C289" s="7">
+        <v>161</v>
+      </c>
+      <c r="D289" s="3">
+        <v>12821</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A290" s="4">
+        <v>44175</v>
+      </c>
+      <c r="B290" s="1">
+        <v>289</v>
+      </c>
+      <c r="C290" s="7">
+        <v>127</v>
+      </c>
+      <c r="D290" s="3">
+        <v>12948</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A291" s="4">
+        <v>44176</v>
+      </c>
+      <c r="B291" s="1">
+        <v>290</v>
+      </c>
+      <c r="C291" s="7">
+        <v>168</v>
+      </c>
+      <c r="D291" s="3">
+        <v>13116</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A292" s="4">
+        <v>44177</v>
+      </c>
+      <c r="B292" s="1">
+        <v>291</v>
+      </c>
+      <c r="C292" s="7">
+        <v>148</v>
+      </c>
+      <c r="D292" s="3">
+        <v>13264</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A293" s="4">
+        <v>44178</v>
+      </c>
+      <c r="B293" s="1">
+        <v>292</v>
+      </c>
+      <c r="C293" s="7">
+        <v>121</v>
+      </c>
+      <c r="D293" s="3">
+        <v>13385</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A294" s="4">
+        <v>44179</v>
+      </c>
+      <c r="B294" s="1">
+        <v>293</v>
+      </c>
+      <c r="C294" s="7">
+        <v>109</v>
+      </c>
+      <c r="D294" s="3">
+        <v>13494</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A295" s="4">
+        <v>44180</v>
+      </c>
+      <c r="B295" s="1">
+        <v>294</v>
+      </c>
+      <c r="C295" s="7">
+        <v>204</v>
+      </c>
+      <c r="D295" s="3">
+        <v>13698</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A296" s="4">
+        <v>44181</v>
+      </c>
+      <c r="B296" s="1">
+        <v>295</v>
+      </c>
+      <c r="C296" s="7">
+        <v>164</v>
+      </c>
+      <c r="D296" s="3">
+        <v>13862</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A297" s="4">
+        <v>44182</v>
+      </c>
+      <c r="B297" s="1">
+        <v>296</v>
+      </c>
+      <c r="C297" s="7">
+        <v>107</v>
+      </c>
+      <c r="D297" s="3">
+        <v>13969</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A298" s="4">
+        <v>44183</v>
+      </c>
+      <c r="B298" s="1">
+        <v>297</v>
+      </c>
+      <c r="C298" s="7">
+        <v>188</v>
+      </c>
+      <c r="D298" s="3">
+        <v>14157</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A299" s="4">
+        <v>44184</v>
+      </c>
+      <c r="B299" s="1">
+        <v>298</v>
+      </c>
+      <c r="C299" s="7">
+        <v>139</v>
+      </c>
+      <c r="D299" s="3">
+        <v>14296</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A300" s="4">
+        <v>44185</v>
+      </c>
+      <c r="B300" s="1">
+        <v>299</v>
+      </c>
+      <c r="C300" s="7">
+        <v>98</v>
+      </c>
+      <c r="D300" s="3">
+        <v>14394</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A301" s="4">
+        <v>44186</v>
+      </c>
+      <c r="B301" s="1">
+        <v>300</v>
+      </c>
+      <c r="C301" s="7">
+        <v>87</v>
+      </c>
+      <c r="D301" s="3">
+        <v>14481</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A302" s="4">
+        <v>44187</v>
+      </c>
+      <c r="B302" s="1">
+        <v>301</v>
+      </c>
+      <c r="C302" s="7">
+        <v>155</v>
+      </c>
+      <c r="D302" s="3">
+        <v>14636</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A303" s="4">
+        <v>44188</v>
+      </c>
+      <c r="B303" s="1">
+        <v>302</v>
+      </c>
+      <c r="C303" s="7">
+        <v>130</v>
+      </c>
+      <c r="D303" s="3">
+        <v>14766</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A304" s="4">
+        <v>44189</v>
+      </c>
+      <c r="B304" s="1">
+        <v>303</v>
+      </c>
+      <c r="C304" s="7">
+        <v>146</v>
+      </c>
+      <c r="D304" s="3">
+        <v>14912</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A305" s="4">
+        <v>44190</v>
+      </c>
+      <c r="B305" s="1">
+        <v>304</v>
+      </c>
+      <c r="C305" s="7">
+        <v>111</v>
+      </c>
+      <c r="D305" s="3">
+        <v>15023</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A306" s="4">
+        <v>44191</v>
+      </c>
+      <c r="B306" s="1">
+        <v>305</v>
+      </c>
+      <c r="C306" s="7">
+        <v>85</v>
+      </c>
+      <c r="D306" s="3">
+        <v>15108</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A307" s="4">
+        <v>44192</v>
+      </c>
+      <c r="B307" s="1">
+        <v>306</v>
+      </c>
+      <c r="C307" s="7">
+        <v>122</v>
+      </c>
+      <c r="D307" s="3">
+        <v>15230</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A308" s="4">
+        <v>44193</v>
+      </c>
+      <c r="B308" s="1">
+        <v>307</v>
+      </c>
+      <c r="C308" s="7">
+        <v>104</v>
+      </c>
+      <c r="D308" s="3">
+        <v>15334</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A309" s="4">
+        <v>44194</v>
+      </c>
+      <c r="B309" s="1">
+        <v>308</v>
+      </c>
+      <c r="C309" s="7">
+        <v>135</v>
+      </c>
+      <c r="D309" s="3">
+        <v>15469</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A310" s="4">
+        <v>44195</v>
+      </c>
+      <c r="B310" s="1">
+        <v>309</v>
+      </c>
+      <c r="C310" s="7">
+        <v>127</v>
+      </c>
+      <c r="D310" s="3">
+        <v>15596</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A311" s="4">
+        <v>44196</v>
+      </c>
+      <c r="B311" s="1">
+        <v>310</v>
+      </c>
+      <c r="C311" s="7">
+        <v>171</v>
+      </c>
+      <c r="D311" s="3">
+        <v>15767</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A312" s="4">
+        <v>44197</v>
+      </c>
+      <c r="B312" s="1">
+        <v>311</v>
+      </c>
+      <c r="C312" s="7">
+        <v>74</v>
+      </c>
+      <c r="D312" s="3">
+        <v>15841</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A313" s="4">
+        <v>44198</v>
+      </c>
+      <c r="B313" s="1">
+        <v>312</v>
+      </c>
+      <c r="C313" s="7">
+        <v>78</v>
+      </c>
+      <c r="D313" s="3">
+        <v>15919</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A314" s="4">
+        <v>44199</v>
+      </c>
+      <c r="B314" s="1">
+        <v>313</v>
+      </c>
+      <c r="C314" s="7">
+        <v>60</v>
+      </c>
+      <c r="D314" s="3">
+        <v>15979</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A315" s="4">
+        <v>44200</v>
+      </c>
+      <c r="B315" s="1">
+        <v>314</v>
+      </c>
+      <c r="C315" s="7">
+        <v>78</v>
+      </c>
+      <c r="D315" s="3">
+        <v>16057</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A316" s="4">
+        <v>44201</v>
+      </c>
+      <c r="B316" s="1">
+        <v>315</v>
+      </c>
+      <c r="C316" s="7">
+        <v>121</v>
+      </c>
+      <c r="D316" s="3">
+        <v>16178</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A317" s="4">
+        <v>44202</v>
+      </c>
+      <c r="B317" s="1">
+        <v>316</v>
+      </c>
+      <c r="C317" s="7">
+        <v>121</v>
+      </c>
+      <c r="D317" s="3">
+        <v>16299</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A318" s="4">
+        <v>44203</v>
+      </c>
+      <c r="B318" s="1">
+        <v>317</v>
+      </c>
+      <c r="C318" s="7">
+        <v>111</v>
+      </c>
+      <c r="D318" s="3">
+        <v>16410</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A319" s="4">
+        <v>44204</v>
+      </c>
+      <c r="B319" s="1">
+        <v>318</v>
+      </c>
+      <c r="C319" s="7">
+        <v>96</v>
+      </c>
+      <c r="D319" s="3">
+        <v>16506</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A320" s="4">
+        <v>44205</v>
+      </c>
+      <c r="B320" s="1">
+        <v>319</v>
+      </c>
+      <c r="C320" s="7">
+        <v>86</v>
+      </c>
+      <c r="D320" s="3">
+        <v>16592</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A321" s="4">
+        <v>44206</v>
+      </c>
+      <c r="B321" s="1">
+        <v>320</v>
+      </c>
+      <c r="C321" s="7">
+        <v>62</v>
+      </c>
+      <c r="D321" s="3">
+        <v>16654</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A322" s="4">
+        <v>44207</v>
+      </c>
+      <c r="B322" s="1">
+        <v>321</v>
+      </c>
+      <c r="C322" s="7">
+        <v>71</v>
+      </c>
+      <c r="D322" s="3">
+        <v>16725</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A323" s="4">
+        <v>44208</v>
+      </c>
+      <c r="B323" s="1">
+        <v>322</v>
+      </c>
+      <c r="C323" s="7">
+        <v>156</v>
+      </c>
+      <c r="D323" s="3">
+        <v>16881</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A324" s="4">
+        <v>44209</v>
+      </c>
+      <c r="B324" s="1">
+        <v>323</v>
+      </c>
+      <c r="C324" s="7">
+        <v>88</v>
+      </c>
+      <c r="D324" s="3">
+        <v>16969</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A325" s="4">
+        <v>44210</v>
+      </c>
+      <c r="B325" s="1">
+        <v>324</v>
+      </c>
+      <c r="C325" s="7">
+        <v>66</v>
+      </c>
+      <c r="D325" s="3">
+        <v>17035</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A326" s="4">
+        <v>44211</v>
+      </c>
+      <c r="B326" s="1">
+        <v>325</v>
+      </c>
+      <c r="C326" s="7">
+        <v>63</v>
+      </c>
+      <c r="D326" s="3">
+        <v>17098</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A327" s="4">
+        <v>44212</v>
+      </c>
+      <c r="B327" s="1">
+        <v>326</v>
+      </c>
+      <c r="C327" s="7">
+        <v>66</v>
+      </c>
+      <c r="D327" s="3">
+        <v>17164</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A328" s="4">
+        <v>44213</v>
+      </c>
+      <c r="B328" s="1">
+        <v>327</v>
+      </c>
+      <c r="C328" s="7">
+        <v>57</v>
+      </c>
+      <c r="D328" s="3">
+        <v>17221</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A329" s="4">
+        <v>44214</v>
+      </c>
+      <c r="B329" s="1">
+        <v>328</v>
+      </c>
+      <c r="C329" s="7">
+        <v>50</v>
+      </c>
+      <c r="D329" s="3">
+        <v>17271</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A330" s="4">
+        <v>44215</v>
+      </c>
+      <c r="B330" s="1">
+        <v>329</v>
+      </c>
+      <c r="C330" s="7">
+        <v>98</v>
+      </c>
+      <c r="D330" s="3">
+        <v>17369</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A331" s="4">
+        <v>44216</v>
+      </c>
+      <c r="B331" s="1">
+        <v>330</v>
+      </c>
+      <c r="C331" s="7">
+        <v>116</v>
+      </c>
+      <c r="D331" s="3">
+        <v>17485</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A332" s="4">
+        <v>44217</v>
+      </c>
+      <c r="B332" s="1">
+        <v>331</v>
+      </c>
+      <c r="C332" s="7">
+        <v>69</v>
+      </c>
+      <c r="D332" s="3">
+        <v>17554</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A333" s="4">
+        <v>44218</v>
+      </c>
+      <c r="B333" s="1">
+        <v>332</v>
+      </c>
+      <c r="C333" s="7">
+        <v>74</v>
+      </c>
+      <c r="D333" s="3">
+        <v>17628</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A334" s="4">
+        <v>44219</v>
+      </c>
+      <c r="B334" s="1">
+        <v>333</v>
+      </c>
+      <c r="C334" s="7">
+        <v>94</v>
+      </c>
+      <c r="D334" s="3">
+        <v>17722</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A335" s="4">
+        <v>44220</v>
+      </c>
+      <c r="B335" s="1">
+        <v>334</v>
+      </c>
+      <c r="C335" s="7">
+        <v>54</v>
+      </c>
+      <c r="D335" s="3">
+        <v>17776</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A336" s="4">
+        <v>44221</v>
+      </c>
+      <c r="B336" s="1">
+        <v>335</v>
+      </c>
+      <c r="C336" s="7">
+        <v>65</v>
+      </c>
+      <c r="D336" s="3">
+        <v>17841</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A337" s="4">
+        <v>44222</v>
+      </c>
+      <c r="B337" s="1">
+        <v>336</v>
+      </c>
+      <c r="C337" s="7">
+        <v>97</v>
+      </c>
+      <c r="D337" s="3">
+        <v>17938</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A338" s="4">
+        <v>44223</v>
+      </c>
+      <c r="B338" s="1">
+        <v>337</v>
+      </c>
+      <c r="C338" s="7">
+        <v>77</v>
+      </c>
+      <c r="D338" s="3">
+        <v>18015</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A339" s="4">
+        <v>44224</v>
+      </c>
+      <c r="B339" s="1">
+        <v>338</v>
+      </c>
+      <c r="C339" s="7">
+        <v>90</v>
+      </c>
+      <c r="D339" s="3">
+        <v>18105</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A340" s="4">
+        <v>44225</v>
+      </c>
+      <c r="B340" s="1">
+        <v>339</v>
+      </c>
+      <c r="C340" s="7">
+        <v>91</v>
+      </c>
+      <c r="D340" s="3">
+        <v>18196</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A341" s="4">
+        <v>44226</v>
+      </c>
+      <c r="B341" s="1">
+        <v>340</v>
+      </c>
+      <c r="C341" s="7">
+        <v>68</v>
+      </c>
+      <c r="D341" s="3">
+        <v>18264</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A342" s="4">
+        <v>44227</v>
+      </c>
+      <c r="B342" s="1">
+        <v>341</v>
+      </c>
+      <c r="C342" s="7">
+        <v>71</v>
+      </c>
+      <c r="D342" s="3">
+        <v>18335</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A343" s="4">
+        <v>44228</v>
+      </c>
+      <c r="B343" s="1">
+        <v>342</v>
+      </c>
+      <c r="C343" s="7">
+        <v>67</v>
+      </c>
+      <c r="D343" s="3">
+        <v>18402</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A344" s="4">
+        <v>44229</v>
+      </c>
+      <c r="B344" s="1">
+        <v>343</v>
+      </c>
+      <c r="C344" s="7">
+        <v>111</v>
+      </c>
+      <c r="D344" s="3">
+        <v>18513</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A345" s="4">
+        <v>44230</v>
+      </c>
+      <c r="B345" s="1">
+        <v>344</v>
+      </c>
+      <c r="C345" s="7">
+        <v>87</v>
+      </c>
+      <c r="D345" s="3">
+        <v>18600</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A346" s="4">
+        <v>44231</v>
+      </c>
+      <c r="B346" s="1">
+        <v>345</v>
+      </c>
+      <c r="C346" s="7">
+        <v>75</v>
+      </c>
+      <c r="D346" s="3">
+        <v>18675</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A347" s="4">
+        <v>44232</v>
+      </c>
+      <c r="B347" s="1">
+        <v>346</v>
+      </c>
+      <c r="C347" s="7">
+        <v>73</v>
+      </c>
+      <c r="D347" s="3">
+        <v>18748</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A348" s="4">
+        <v>44233</v>
+      </c>
+      <c r="B348" s="1">
+        <v>347</v>
+      </c>
+      <c r="C348" s="7">
+        <v>61</v>
+      </c>
+      <c r="D348" s="3">
+        <v>18809</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A349" s="4">
+        <v>44234</v>
+      </c>
+      <c r="B349" s="1">
+        <v>348</v>
+      </c>
+      <c r="C349" s="7">
+        <v>72</v>
+      </c>
+      <c r="D349" s="3">
+        <v>18881</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A350" s="4">
+        <v>44235</v>
+      </c>
+      <c r="B350" s="1">
+        <v>349</v>
+      </c>
+      <c r="C350" s="7">
+        <v>80</v>
+      </c>
+      <c r="D350" s="3">
+        <v>18961</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A351" s="4">
+        <v>44236</v>
+      </c>
+      <c r="B351" s="1">
+        <v>350</v>
+      </c>
+      <c r="C351" s="7">
+        <v>95</v>
+      </c>
+      <c r="D351" s="3">
+        <v>19056</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A352" s="4">
+        <v>44237</v>
+      </c>
+      <c r="B352" s="1">
+        <v>351</v>
+      </c>
+      <c r="C352" s="7">
+        <v>79</v>
+      </c>
+      <c r="D352" s="3">
+        <v>19135</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A353" s="4">
+        <v>44238</v>
+      </c>
+      <c r="B353" s="1">
+        <v>352</v>
+      </c>
+      <c r="C353" s="7">
+        <v>65</v>
+      </c>
+      <c r="D353" s="3">
+        <v>19200</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A354" s="4">
+        <v>44239</v>
+      </c>
+      <c r="B354" s="1">
+        <v>353</v>
+      </c>
+      <c r="C354" s="7">
+        <v>77</v>
+      </c>
+      <c r="D354" s="3">
+        <v>19277</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A355" s="4">
+        <v>44240</v>
+      </c>
+      <c r="B355" s="1">
+        <v>354</v>
+      </c>
+      <c r="C355" s="7">
+        <v>45</v>
+      </c>
+      <c r="D355" s="3">
+        <v>19325</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A356" s="4">
+        <v>44241</v>
+      </c>
+      <c r="B356" s="1">
+        <v>355</v>
+      </c>
+      <c r="C356" s="7">
+        <v>41</v>
+      </c>
+      <c r="D356" s="3">
+        <v>19366</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A357" s="4">
+        <v>44242</v>
+      </c>
+      <c r="B357" s="1">
+        <v>356</v>
+      </c>
+      <c r="C357" s="7">
+        <v>79</v>
+      </c>
+      <c r="D357" s="3">
+        <v>19445</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A358" s="4">
+        <v>44243</v>
+      </c>
+      <c r="B358" s="1">
+        <v>357</v>
+      </c>
+      <c r="C358" s="7">
+        <v>81</v>
+      </c>
+      <c r="D358" s="3">
+        <v>19526</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A359" s="4">
+        <v>44244</v>
+      </c>
+      <c r="B359" s="1">
+        <v>358</v>
+      </c>
+      <c r="C359" s="7">
+        <v>65</v>
+      </c>
+      <c r="D359" s="3">
+        <v>19588</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A360" s="4">
+        <v>44245</v>
+      </c>
+      <c r="B360" s="1">
+        <v>359</v>
+      </c>
+      <c r="C360" s="7">
+        <v>71</v>
+      </c>
+      <c r="D360" s="3">
+        <v>19659</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A361" s="4">
+        <v>44246</v>
+      </c>
+      <c r="B361" s="1">
+        <v>360</v>
+      </c>
+      <c r="C361" s="7">
+        <v>79</v>
+      </c>
+      <c r="D361" s="3">
+        <v>19738</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A362" s="4">
+        <v>44247</v>
+      </c>
+      <c r="B362" s="1">
+        <v>361</v>
+      </c>
+      <c r="C362" s="7">
+        <v>57</v>
+      </c>
+      <c r="D362" s="3">
+        <v>19795</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A363" s="4">
+        <v>44248</v>
+      </c>
+      <c r="B363" s="1">
+        <v>362</v>
+      </c>
+      <c r="C363" s="7">
+        <v>52</v>
+      </c>
+      <c r="D363" s="3">
+        <v>19847</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A364" s="4">
+        <v>44249</v>
+      </c>
+      <c r="B364" s="1">
+        <v>363</v>
+      </c>
+      <c r="C364" s="7">
+        <v>47</v>
+      </c>
+      <c r="D364" s="3">
+        <v>19894</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A365" s="4">
+        <v>44250</v>
+      </c>
+      <c r="B365" s="1">
+        <v>364</v>
+      </c>
+      <c r="C365" s="7">
+        <v>119</v>
+      </c>
+      <c r="D365" s="3">
+        <v>20013</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A366" s="4">
+        <v>44251</v>
+      </c>
+      <c r="B366" s="1">
+        <v>365</v>
+      </c>
+      <c r="C366" s="7">
+        <v>73</v>
+      </c>
+      <c r="D366" s="3">
+        <v>20086</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A367" s="4">
+        <v>44252</v>
+      </c>
+      <c r="B367" s="1">
+        <v>366</v>
+      </c>
+      <c r="C367" s="7">
+        <v>81</v>
+      </c>
+      <c r="D367" s="3">
+        <v>20167</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A368" s="4">
+        <v>44253</v>
+      </c>
+      <c r="B368" s="1">
+        <v>367</v>
+      </c>
+      <c r="C368" s="7">
+        <v>66</v>
+      </c>
+      <c r="D368" s="3">
+        <v>20233</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A369" s="4">
+        <v>44254</v>
+      </c>
+      <c r="B369" s="1">
+        <v>368</v>
+      </c>
+      <c r="C369" s="7">
+        <v>54</v>
+      </c>
+      <c r="D369" s="3">
+        <v>20287</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A370" s="4">
+        <v>44255</v>
+      </c>
+      <c r="B370" s="1">
+        <v>369</v>
+      </c>
+      <c r="C370" s="7">
+        <v>63</v>
+      </c>
+      <c r="D370" s="3">
+        <v>20350</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A371" s="4">
+        <v>44256</v>
+      </c>
+      <c r="B371" s="1">
+        <v>370</v>
+      </c>
+      <c r="C371" s="7">
+        <v>53</v>
+      </c>
+      <c r="D371" s="3">
+        <v>20403</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A372" s="4">
+        <v>44257</v>
+      </c>
+      <c r="B372" s="1">
+        <v>371</v>
+      </c>
+      <c r="C372" s="7">
+        <v>106</v>
+      </c>
+      <c r="D372" s="3">
+        <v>20509</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A373" s="4">
+        <v>44258</v>
+      </c>
+      <c r="B373" s="1">
+        <v>372</v>
+      </c>
+      <c r="C373" s="7">
+        <v>77</v>
+      </c>
+      <c r="D373" s="3">
+        <v>20586</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A374" s="4">
+        <v>44259</v>
+      </c>
+      <c r="B374" s="1">
+        <v>373</v>
+      </c>
+      <c r="C374" s="7">
+        <v>98</v>
+      </c>
+      <c r="D374" s="3">
+        <v>20684</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A375" s="4">
+        <v>44260</v>
+      </c>
+      <c r="B375" s="1">
+        <v>374</v>
+      </c>
+      <c r="C375" s="7">
+        <v>101</v>
+      </c>
+      <c r="D375" s="3">
+        <v>20785</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A376" s="4">
+        <v>44261</v>
+      </c>
+      <c r="B376" s="1">
+        <v>375</v>
+      </c>
+      <c r="C376" s="7">
+        <v>69</v>
+      </c>
+      <c r="D376" s="3">
+        <v>20854</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A377" s="4">
+        <v>44262</v>
+      </c>
+      <c r="B377" s="1">
+        <v>376</v>
+      </c>
+      <c r="C377" s="7">
+        <v>46</v>
+      </c>
+      <c r="D377" s="3">
+        <v>20900</v>
       </c>
     </row>
   </sheetData>

--- a/Database/Csaki/Decese.xlsx
+++ b/Database/Csaki/Decese.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leo\Desktop\Baza date liceta\Licenta_covid19_UTCN\Database\Csaki\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Facultate\Licenta\Baza date liceta\Licenta_covid19_UTCN\Database\Csaki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC178BB-CD75-406A-A0F3-718ACD5C6278}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61DE05FD-0BA9-46A3-8D37-C44A5848A7BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,10 +50,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -136,7 +142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -148,6 +154,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H377"/>
+  <dimension ref="A1:H434"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G406" sqref="G406"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5722,6 +5729,804 @@
       </c>
       <c r="D377" s="3">
         <v>20900</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A378" s="4">
+        <v>44263</v>
+      </c>
+      <c r="B378" s="1">
+        <v>377</v>
+      </c>
+      <c r="C378" s="7">
+        <v>63</v>
+      </c>
+      <c r="D378" s="9">
+        <v>20963</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A379" s="4">
+        <v>44264</v>
+      </c>
+      <c r="B379" s="1">
+        <v>378</v>
+      </c>
+      <c r="C379" s="7">
+        <v>93</v>
+      </c>
+      <c r="D379" s="9">
+        <v>21056</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A380" s="4">
+        <v>44265</v>
+      </c>
+      <c r="B380" s="1">
+        <v>379</v>
+      </c>
+      <c r="C380" s="7">
+        <v>100</v>
+      </c>
+      <c r="D380" s="9">
+        <v>21156</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A381" s="4">
+        <v>44266</v>
+      </c>
+      <c r="B381" s="1">
+        <v>380</v>
+      </c>
+      <c r="C381" s="7">
+        <v>96</v>
+      </c>
+      <c r="D381" s="9">
+        <v>21252</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A382" s="4">
+        <v>44267</v>
+      </c>
+      <c r="B382" s="1">
+        <v>381</v>
+      </c>
+      <c r="C382" s="7">
+        <v>105</v>
+      </c>
+      <c r="D382" s="9">
+        <v>21360</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A383" s="4">
+        <v>44268</v>
+      </c>
+      <c r="B383" s="1">
+        <v>382</v>
+      </c>
+      <c r="C383" s="7">
+        <v>79</v>
+      </c>
+      <c r="D383" s="9">
+        <v>21439</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A384" s="4">
+        <v>44269</v>
+      </c>
+      <c r="B384" s="1">
+        <v>383</v>
+      </c>
+      <c r="C384" s="7">
+        <v>44</v>
+      </c>
+      <c r="D384" s="9">
+        <v>21483</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A385" s="4">
+        <v>44270</v>
+      </c>
+      <c r="B385" s="1">
+        <v>384</v>
+      </c>
+      <c r="C385" s="7">
+        <v>82</v>
+      </c>
+      <c r="D385" s="9">
+        <v>21565</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A386" s="4">
+        <v>44271</v>
+      </c>
+      <c r="B386" s="1">
+        <v>385</v>
+      </c>
+      <c r="C386" s="7">
+        <v>133</v>
+      </c>
+      <c r="D386" s="9">
+        <v>21698</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A387" s="4">
+        <v>44272</v>
+      </c>
+      <c r="B387" s="1">
+        <v>386</v>
+      </c>
+      <c r="C387" s="7">
+        <v>89</v>
+      </c>
+      <c r="D387" s="9">
+        <v>21787</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A388" s="4">
+        <v>44273</v>
+      </c>
+      <c r="B388" s="1">
+        <v>387</v>
+      </c>
+      <c r="C388" s="7">
+        <v>90</v>
+      </c>
+      <c r="D388" s="9">
+        <v>21877</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A389" s="4">
+        <v>44274</v>
+      </c>
+      <c r="B389" s="1">
+        <v>388</v>
+      </c>
+      <c r="C389" s="7">
+        <v>143</v>
+      </c>
+      <c r="D389" s="9">
+        <v>22020</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A390" s="4">
+        <v>44275</v>
+      </c>
+      <c r="B390" s="1">
+        <v>389</v>
+      </c>
+      <c r="C390" s="7">
+        <v>112</v>
+      </c>
+      <c r="D390" s="9">
+        <v>22132</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A391" s="4">
+        <v>44276</v>
+      </c>
+      <c r="B391" s="1">
+        <v>390</v>
+      </c>
+      <c r="C391" s="7">
+        <v>76</v>
+      </c>
+      <c r="D391" s="9">
+        <v>22208</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A392" s="4">
+        <v>44277</v>
+      </c>
+      <c r="B392" s="1">
+        <v>391</v>
+      </c>
+      <c r="C392" s="7">
+        <v>60</v>
+      </c>
+      <c r="D392" s="9">
+        <v>22268</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A393" s="4">
+        <v>44278</v>
+      </c>
+      <c r="B393" s="1">
+        <v>392</v>
+      </c>
+      <c r="C393" s="7">
+        <v>174</v>
+      </c>
+      <c r="D393" s="9">
+        <v>22442</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A394" s="4">
+        <v>44279</v>
+      </c>
+      <c r="B394" s="1">
+        <v>393</v>
+      </c>
+      <c r="C394" s="7">
+        <v>137</v>
+      </c>
+      <c r="D394" s="9">
+        <v>22579</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A395" s="4">
+        <v>44280</v>
+      </c>
+      <c r="B395" s="1">
+        <v>394</v>
+      </c>
+      <c r="C395" s="7">
+        <v>140</v>
+      </c>
+      <c r="D395" s="9">
+        <v>22719</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A396" s="4">
+        <v>44281</v>
+      </c>
+      <c r="B396" s="1">
+        <v>395</v>
+      </c>
+      <c r="C396" s="7">
+        <v>116</v>
+      </c>
+      <c r="D396" s="9">
+        <v>22835</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A397" s="4">
+        <v>44282</v>
+      </c>
+      <c r="B397" s="1">
+        <v>396</v>
+      </c>
+      <c r="C397" s="7">
+        <v>162</v>
+      </c>
+      <c r="D397" s="9">
+        <v>22997</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A398" s="4">
+        <v>44283</v>
+      </c>
+      <c r="B398" s="1">
+        <v>397</v>
+      </c>
+      <c r="C398" s="7">
+        <v>117</v>
+      </c>
+      <c r="D398" s="9">
+        <v>23114</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A399" s="4">
+        <v>44284</v>
+      </c>
+      <c r="B399" s="1">
+        <v>398</v>
+      </c>
+      <c r="C399" s="7">
+        <v>120</v>
+      </c>
+      <c r="D399" s="9">
+        <v>23234</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A400" s="4">
+        <v>44285</v>
+      </c>
+      <c r="B400" s="1">
+        <v>399</v>
+      </c>
+      <c r="C400" s="7">
+        <v>175</v>
+      </c>
+      <c r="D400" s="9">
+        <v>23409</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A401" s="4">
+        <v>44286</v>
+      </c>
+      <c r="B401" s="1">
+        <v>400</v>
+      </c>
+      <c r="C401" s="7">
+        <v>129</v>
+      </c>
+      <c r="D401" s="9">
+        <v>23538</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A402" s="4">
+        <v>44287</v>
+      </c>
+      <c r="B402" s="1">
+        <v>401</v>
+      </c>
+      <c r="C402" s="7">
+        <v>136</v>
+      </c>
+      <c r="D402" s="9">
+        <v>23674</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A403" s="4">
+        <v>44288</v>
+      </c>
+      <c r="B403" s="1">
+        <v>402</v>
+      </c>
+      <c r="C403" s="7">
+        <v>145</v>
+      </c>
+      <c r="D403" s="9">
+        <v>23819</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A404" s="4">
+        <v>44289</v>
+      </c>
+      <c r="B404" s="1">
+        <v>403</v>
+      </c>
+      <c r="C404" s="7">
+        <v>154</v>
+      </c>
+      <c r="D404" s="9">
+        <v>23973</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A405" s="4">
+        <v>44290</v>
+      </c>
+      <c r="B405" s="1">
+        <v>404</v>
+      </c>
+      <c r="C405" s="7">
+        <v>97</v>
+      </c>
+      <c r="D405" s="9">
+        <v>24070</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A406" s="4">
+        <v>44291</v>
+      </c>
+      <c r="B406" s="1">
+        <v>405</v>
+      </c>
+      <c r="C406" s="7">
+        <v>120</v>
+      </c>
+      <c r="D406" s="9">
+        <v>24190</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A407" s="4">
+        <v>44292</v>
+      </c>
+      <c r="B407" s="1">
+        <v>406</v>
+      </c>
+      <c r="C407" s="7">
+        <v>196</v>
+      </c>
+      <c r="D407" s="9">
+        <v>24386</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A408" s="4">
+        <v>44293</v>
+      </c>
+      <c r="B408" s="1">
+        <v>407</v>
+      </c>
+      <c r="C408" s="7">
+        <v>175</v>
+      </c>
+      <c r="D408" s="9">
+        <v>24561</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A409" s="4">
+        <v>44294</v>
+      </c>
+      <c r="B409" s="1">
+        <v>408</v>
+      </c>
+      <c r="C409" s="7">
+        <v>172</v>
+      </c>
+      <c r="D409" s="9">
+        <v>24733</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A410" s="4">
+        <v>44295</v>
+      </c>
+      <c r="B410" s="1">
+        <v>409</v>
+      </c>
+      <c r="C410" s="7">
+        <v>134</v>
+      </c>
+      <c r="D410" s="9">
+        <v>24867</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A411" s="4">
+        <v>44296</v>
+      </c>
+      <c r="B411" s="1">
+        <v>410</v>
+      </c>
+      <c r="C411" s="7">
+        <v>139</v>
+      </c>
+      <c r="D411" s="9">
+        <v>25006</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A412" s="4">
+        <v>44297</v>
+      </c>
+      <c r="B412" s="1">
+        <v>411</v>
+      </c>
+      <c r="C412" s="7">
+        <v>129</v>
+      </c>
+      <c r="D412" s="9">
+        <v>25135</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A413" s="4">
+        <v>44298</v>
+      </c>
+      <c r="B413" s="1">
+        <v>412</v>
+      </c>
+      <c r="C413" s="7">
+        <v>113</v>
+      </c>
+      <c r="D413" s="9">
+        <v>25248</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A414" s="4">
+        <v>44299</v>
+      </c>
+      <c r="B414" s="1">
+        <v>413</v>
+      </c>
+      <c r="C414" s="7">
+        <v>193</v>
+      </c>
+      <c r="D414" s="9">
+        <v>25441</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A415" s="4">
+        <v>44300</v>
+      </c>
+      <c r="B415" s="1">
+        <v>414</v>
+      </c>
+      <c r="C415" s="7">
+        <v>164</v>
+      </c>
+      <c r="D415" s="3">
+        <v>25605</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A416" s="4">
+        <v>44301</v>
+      </c>
+      <c r="B416" s="1">
+        <v>415</v>
+      </c>
+      <c r="C416" s="7">
+        <v>195</v>
+      </c>
+      <c r="D416" s="3">
+        <v>25800</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A417" s="4">
+        <v>44302</v>
+      </c>
+      <c r="B417" s="1">
+        <v>416</v>
+      </c>
+      <c r="C417" s="7">
+        <v>137</v>
+      </c>
+      <c r="D417" s="3">
+        <v>25937</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A418" s="4">
+        <v>44303</v>
+      </c>
+      <c r="B418" s="1">
+        <v>417</v>
+      </c>
+      <c r="C418" s="7">
+        <v>135</v>
+      </c>
+      <c r="D418" s="3">
+        <v>26072</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A419" s="4">
+        <v>44304</v>
+      </c>
+      <c r="B419" s="1">
+        <v>418</v>
+      </c>
+      <c r="C419" s="7">
+        <v>160</v>
+      </c>
+      <c r="D419" s="3">
+        <v>26232</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A420" s="4">
+        <v>44305</v>
+      </c>
+      <c r="B420" s="1">
+        <v>419</v>
+      </c>
+      <c r="C420" s="7">
+        <v>149</v>
+      </c>
+      <c r="D420" s="3">
+        <v>26381</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A421" s="4">
+        <v>44306</v>
+      </c>
+      <c r="B421" s="1">
+        <v>420</v>
+      </c>
+      <c r="C421" s="7">
+        <v>237</v>
+      </c>
+      <c r="D421" s="3">
+        <v>26618</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A422" s="4">
+        <v>44307</v>
+      </c>
+      <c r="B422" s="1">
+        <v>421</v>
+      </c>
+      <c r="C422" s="7">
+        <v>175</v>
+      </c>
+      <c r="D422" s="3">
+        <v>26793</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A423" s="4">
+        <v>44308</v>
+      </c>
+      <c r="B423" s="1">
+        <v>422</v>
+      </c>
+      <c r="C423" s="7">
+        <v>150</v>
+      </c>
+      <c r="D423" s="3">
+        <v>26943</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A424" s="4">
+        <v>44309</v>
+      </c>
+      <c r="B424" s="1">
+        <v>423</v>
+      </c>
+      <c r="C424" s="7">
+        <v>170</v>
+      </c>
+      <c r="D424" s="3">
+        <v>27113</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A425" s="4">
+        <v>44310</v>
+      </c>
+      <c r="B425" s="1">
+        <v>424</v>
+      </c>
+      <c r="C425" s="7">
+        <v>154</v>
+      </c>
+      <c r="D425" s="3">
+        <v>27267</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A426" s="4">
+        <v>44311</v>
+      </c>
+      <c r="B426" s="1">
+        <v>425</v>
+      </c>
+      <c r="C426" s="7">
+        <v>127</v>
+      </c>
+      <c r="D426" s="3">
+        <v>27394</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A427" s="4">
+        <v>44312</v>
+      </c>
+      <c r="B427" s="1">
+        <v>426</v>
+      </c>
+      <c r="C427" s="7">
+        <v>117</v>
+      </c>
+      <c r="D427" s="3">
+        <v>27511</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A428" s="4">
+        <v>44313</v>
+      </c>
+      <c r="B428" s="1">
+        <v>427</v>
+      </c>
+      <c r="C428" s="7">
+        <v>172</v>
+      </c>
+      <c r="D428" s="3">
+        <v>27683</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A429" s="4">
+        <v>44314</v>
+      </c>
+      <c r="B429" s="1">
+        <v>428</v>
+      </c>
+      <c r="C429" s="7">
+        <v>150</v>
+      </c>
+      <c r="D429" s="3">
+        <v>27833</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A430" s="4">
+        <v>44315</v>
+      </c>
+      <c r="B430" s="1">
+        <v>429</v>
+      </c>
+      <c r="C430" s="7">
+        <v>138</v>
+      </c>
+      <c r="D430" s="3">
+        <v>27971</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A431" s="4">
+        <v>44316</v>
+      </c>
+      <c r="B431" s="1">
+        <v>430</v>
+      </c>
+      <c r="C431" s="7">
+        <v>138</v>
+      </c>
+      <c r="D431" s="3">
+        <v>28109</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A432" s="4">
+        <v>44317</v>
+      </c>
+      <c r="B432" s="1">
+        <v>431</v>
+      </c>
+      <c r="C432" s="7">
+        <v>85</v>
+      </c>
+      <c r="D432" s="3">
+        <v>28194</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A433" s="4">
+        <v>44318</v>
+      </c>
+      <c r="B433" s="1">
+        <v>432</v>
+      </c>
+      <c r="C433" s="7">
+        <v>88</v>
+      </c>
+      <c r="D433" s="3">
+        <v>28282</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A434" s="4">
+        <v>44319</v>
+      </c>
+      <c r="B434" s="1">
+        <v>433</v>
+      </c>
+      <c r="C434" s="7">
+        <v>98</v>
+      </c>
+      <c r="D434" s="3">
+        <v>28380</v>
       </c>
     </row>
   </sheetData>
